--- a/Test_report/report.xlsx
+++ b/Test_report/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>测试报告概况</t>
   </si>
@@ -62,7 +62,7 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>2018-08-30 10</t>
+    <t>2018-08-30 15:07</t>
   </si>
   <si>
     <t>分数</t>
@@ -113,9 +113,6 @@
     <t>['elasticsearch:phone=18856361920', 'elasticsearch:tid=1', 'elasticsearch:status=--']</t>
   </si>
   <si>
-    <t>['elasticsearch\xe6\x9f\xa5\xe8\xaf\xa2\xe7\xbb\x93\xe6\x9e\x9c\xe4\xb8\xba:18856361920', 'elasticsearch\xe6\x9f\xa5\xe8\xaf\xa2\xe7\xbb\x93\xe6\x9e\x9c\xe4\xb8\xba:1', 'elasticsearch\xe6\x9f\xa5\xe8\xaf\xa2\xe7\xbb\x93\xe6\x9e\x9c\xe4\xb8\xba:--']</t>
-  </si>
-  <si>
     <t>['elasticsearch:phone=18856361920 is True', 'elasticsearch:tid=1 is True', 'elasticsearch:status=-- is True']</t>
   </si>
   <si>
@@ -137,10 +134,10 @@
     <t>['elasticsearch:phone=18856361920', 'elasticsearch:tid=1', 'elasticsearch:status=SUCCESS']</t>
   </si>
   <si>
-    <t>['elasticsearch\xe6\x9f\xa5\xe8\xaf\xa2\xe7\xbb\x93\xe6\x9e\x9c\xe4\xb8\xba:18856361920', 'elasticsearch\xe6\x9f\xa5\xe8\xaf\xa2\xe7\xbb\x93\xe6\x9e\x9c\xe4\xb8\xba:1', 'elasticsearch\xe6\x9f\xa5\xe8\xaf\xa2\xe7\xbb\x93\xe6\x9e\x9c\xe4\xb8\xba:SUCCESS']</t>
-  </si>
-  <si>
-    <t>['elasticsearch:phone=18856361920 is True', 'elasticsearch:tid=1 is True', 'elasticsearch:status=SUCCESS is True']</t>
+    <t>['elasticsearch:phone=18856361920 is False', 'elasticsearch:tid=1 is False', 'elasticsearch:status=SUCCESS is True']</t>
+  </si>
+  <si>
+    <t>不通过</t>
   </si>
   <si>
     <t>test3</t>
@@ -149,13 +146,7 @@
     <t>['mongo:TotalCount=1', 'mongo:SuccessCount=0', 'mongo:ChargedCount=0']</t>
   </si>
   <si>
-    <t>['mongo\xe6\x9f\xa5\xe8\xaf\xa2\xe7\xbb\x93\xe6\x9e\x9c\xe4\xb8\xba:1', 'mongo\xe6\x9f\xa5\xe8\xaf\xa2\xe7\xbb\x93\xe6\x9e\x9c\xe4\xb8\xba:0', 'mongo\xe6\x9f\xa5\xe8\xaf\xa2\xe7\xbb\x93\xe6\x9e\x9c\xe4\xb8\xba:0']</t>
-  </si>
-  <si>
-    <t>['mongo:TotalCount=1 is False', 'mongo:SuccessCount=0 is False', 'mongo:ChargedCount=0 is False']</t>
-  </si>
-  <si>
-    <t>不通过</t>
+    <t>['mongo:TotalCount=1 is True', 'mongo:SuccessCount=0 is True', 'mongo:ChargedCount=0 is True']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +834,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -851,42 +842,42 @@
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
@@ -906,13 +897,13 @@
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1"/>

--- a/Test_report/report.xlsx
+++ b/Test_report/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>测试报告概况</t>
   </si>
@@ -38,7 +38,7 @@
     <t>测试环境</t>
   </si>
   <si>
-    <t>短信消息插件自动化调试</t>
+    <t>213</t>
   </si>
   <si>
     <t>1.0.1</t>
@@ -47,9 +47,6 @@
     <t>python</t>
   </si>
   <si>
-    <t>集成测试环境</t>
-  </si>
-  <si>
     <t>用例总数</t>
   </si>
   <si>
@@ -62,15 +59,9 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>2018-08-30 15:07</t>
-  </si>
-  <si>
     <t>分数</t>
   </si>
   <si>
-    <t>0.67</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -98,55 +89,7 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>短信发送日志统计</t>
-  </si>
-  <si>
-    <t>发送日志同步记录在ES中</t>
-  </si>
-  <si>
-    <t>['flume_init']</t>
-  </si>
-  <si>
-    <t>['elasticsearch:phone=18856361920', 'elasticsearch:tid=1', 'elasticsearch:status=--']</t>
-  </si>
-  <si>
-    <t>['elasticsearch:phone=18856361920 is True', 'elasticsearch:tid=1 is True', 'elasticsearch:status=-- is True']</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>短信回调更新ES</t>
-  </si>
-  <si>
-    <t>回调成功状态短信更新ES</t>
-  </si>
-  <si>
-    <t>['flume_init', 'flume_init']</t>
-  </si>
-  <si>
-    <t>['elasticsearch:phone=18856361920', 'elasticsearch:tid=1', 'elasticsearch:status=SUCCESS']</t>
-  </si>
-  <si>
-    <t>['elasticsearch:phone=18856361920 is False', 'elasticsearch:tid=1 is False', 'elasticsearch:status=SUCCESS is True']</t>
-  </si>
-  <si>
-    <t>不通过</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>['mongo:TotalCount=1', 'mongo:SuccessCount=0', 'mongo:ChargedCount=0']</t>
-  </si>
-  <si>
-    <t>['mongo:TotalCount=1 is True', 'mongo:SuccessCount=0 is True', 'mongo:ChargedCount=0 is True']</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -304,10 +247,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,13 +648,11 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
@@ -723,14 +664,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="3"/>
@@ -741,11 +678,9 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
@@ -753,15 +688,11 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
   </sheetData>
@@ -778,7 +709,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -796,7 +727,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -808,107 +739,62 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1"/>
+    <row r="4" spans="1:8" ht="30" customHeight="1"/>
+    <row r="5" spans="1:8" ht="30" customHeight="1"/>
     <row r="6" spans="1:8" ht="30" customHeight="1"/>
     <row r="7" spans="1:8" ht="30" customHeight="1"/>
     <row r="8" spans="1:8" ht="30" customHeight="1"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>

--- a/Test_report/report.xlsx
+++ b/Test_report/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>测试报告概况</t>
   </si>
@@ -38,7 +38,7 @@
     <t>测试环境</t>
   </si>
   <si>
-    <t>213</t>
+    <t>短信消息插件自动化调试</t>
   </si>
   <si>
     <t>1.0.1</t>
@@ -47,6 +47,9 @@
     <t>python</t>
   </si>
   <si>
+    <t>集成测试环境</t>
+  </si>
+  <si>
     <t>用例总数</t>
   </si>
   <si>
@@ -59,9 +62,15 @@
     <t>测试日期</t>
   </si>
   <si>
+    <t>2018-09-07 14:56</t>
+  </si>
+  <si>
     <t>分数</t>
   </si>
   <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -89,7 +98,43 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>短信发送日志统计</t>
+  </si>
+  <si>
+    <t>发送日志同步记录在ES中</t>
+  </si>
+  <si>
+    <t>['flume_init']</t>
+  </si>
+  <si>
+    <t>['elasticsearch:phone=18856361920', 'elasticsearch:tid=1', 'elasticsearch:status=--']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>不通过</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>短信回调更新ES</t>
+  </si>
+  <si>
+    <t>回调成功状态短信更新ES</t>
+  </si>
+  <si>
+    <t>['flume_init', 'flume_init']</t>
+  </si>
+  <si>
+    <t>['elasticsearch:phone=18856361920', 'elasticsearch:tid=1', 'elasticsearch:status=SUCCESS']</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -250,7 +295,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,11 +693,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
@@ -664,10 +711,14 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="3"/>
@@ -678,9 +729,11 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
@@ -688,11 +741,15 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
   </sheetData>
@@ -709,7 +766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -727,7 +784,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -739,62 +796,107 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1"/>
-    <row r="4" spans="1:8" ht="30" customHeight="1"/>
-    <row r="5" spans="1:8" ht="30" customHeight="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="6" spans="1:8" ht="30" customHeight="1"/>
     <row r="7" spans="1:8" ht="30" customHeight="1"/>
     <row r="8" spans="1:8" ht="30" customHeight="1"/>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
